--- a/notebooks/Heena notebooks/Metabolism_New Genes/gene_usage_fix_all.xlsx
+++ b/notebooks/Heena notebooks/Metabolism_New Genes/gene_usage_fix_all.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HeenaSaqib/dev/vivarium-ecoli/notebooks/Heena notebooks/Metabolism_New Genes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B08AD2-8FED-9541-9C36-D11B416669EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C774BB-6444-4445-99F8-93E876B568D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" xr2:uid="{8F525C24-4688-F543-9939-2D72C44FD381}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" activeTab="1" xr2:uid="{8F525C24-4688-F543-9939-2D72C44FD381}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Color Code" sheetId="2" r:id="rId1"/>
+    <sheet name="Gene Triage" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$308</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Gene Triage'!$A$1:$K$308</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="1377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="1383">
   <si>
     <t>Gene ID (EcoCyc)</t>
   </si>
@@ -4171,6 +4171,24 @@
   </si>
   <si>
     <t xml:space="preserve">T2-C4-DECADIENYL-COA[c] no production dem. Lots of generic reactions available, but need to find paired metabolite that works. </t>
+  </si>
+  <si>
+    <t>Implemented in the FBA</t>
+  </si>
+  <si>
+    <t>Somewhat diffult, but may be more difficult than I think</t>
+  </si>
+  <si>
+    <t>Medium, if I spend 2 more hours or so, I can probably fix it</t>
+  </si>
+  <si>
+    <t>Impossible, I won't even touch it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplement vitamin C ASCORBATE[p] into media, and this reactions and some downstream ones would be used. </t>
+  </si>
+  <si>
+    <t>Easy fixes,know the solution  but haven't implemented</t>
   </si>
 </sst>
 </file>
@@ -4286,7 +4304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -4327,6 +4345,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4340,7 +4373,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4443,9 +4476,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4467,6 +4497,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -4810,11 +4854,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3E27AC-674E-3941-8951-D172B7A2FC05}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="44"/>
+      <c r="B1" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="45"/>
+      <c r="B2" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="47"/>
+      <c r="B3" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="46"/>
+      <c r="B4" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="48"/>
+      <c r="B5" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180D3E06-FBAA-7A47-9F20-C0082CED806E}">
   <dimension ref="A1:P311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G173" zoomScale="112" workbookViewId="0">
-      <selection activeCell="K209" sqref="K209"/>
+    <sheetView tabSelected="1" topLeftCell="A286" zoomScale="112" workbookViewId="0">
+      <selection activeCell="F305" sqref="F305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6615,28 +6704,28 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="41" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="37" t="s">
+    <row r="69" spans="1:11" s="40" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="B69" s="38" t="s">
+      <c r="B69" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="C69" s="37" t="s">
+      <c r="C69" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="D69" s="39" t="s">
+      <c r="D69" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="E69" s="40"/>
-      <c r="F69" s="39" t="s">
+      <c r="E69" s="39"/>
+      <c r="F69" s="38" t="s">
         <v>1335</v>
       </c>
-      <c r="G69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="37" t="s">
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="36" t="s">
         <v>204</v>
       </c>
     </row>
@@ -6654,7 +6743,7 @@
         <v>189</v>
       </c>
       <c r="E70" s="8"/>
-      <c r="F70" s="36" t="s">
+      <c r="F70" s="51" t="s">
         <v>1354</v>
       </c>
       <c r="G70" s="6"/>
@@ -6679,7 +6768,7 @@
         <v>199</v>
       </c>
       <c r="E71" s="8"/>
-      <c r="F71" s="36"/>
+      <c r="F71" s="51"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
@@ -7518,7 +7607,7 @@
       <c r="A105" s="5" t="s">
         <v>1191</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="49" t="s">
         <v>1192</v>
       </c>
       <c r="C105" s="5" t="s">
@@ -7541,7 +7630,7 @@
       <c r="A106" s="5" t="s">
         <v>1194</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="49" t="s">
         <v>1195</v>
       </c>
       <c r="C106" s="5" t="s">
@@ -7551,7 +7640,6 @@
         <v>808</v>
       </c>
       <c r="E106" s="8"/>
-      <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
@@ -7614,7 +7702,7 @@
       <c r="A109" s="5" t="s">
         <v>1189</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="50" t="s">
         <v>1190</v>
       </c>
       <c r="C109" s="5" t="s">
@@ -7624,7 +7712,6 @@
         <v>808</v>
       </c>
       <c r="E109" s="8"/>
-      <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
@@ -7633,11 +7720,11 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>1120</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="16" t="s">
         <v>1121</v>
       </c>
       <c r="C110" s="5" t="s">
@@ -7647,7 +7734,9 @@
         <v>1117</v>
       </c>
       <c r="E110" s="8"/>
-      <c r="F110" s="6"/>
+      <c r="F110" s="6" t="s">
+        <v>1381</v>
+      </c>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
@@ -9767,7 +9856,7 @@
       <c r="A200" s="18" t="s">
         <v>521</v>
       </c>
-      <c r="B200" s="44" t="s">
+      <c r="B200" s="43" t="s">
         <v>522</v>
       </c>
       <c r="C200" s="18" t="s">
@@ -9776,22 +9865,22 @@
       <c r="D200" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="E200" s="42" t="b">
+      <c r="E200" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="F200" s="43" t="s">
+      <c r="F200" s="42" t="s">
         <v>1260</v>
       </c>
-      <c r="G200" s="43" t="s">
+      <c r="G200" s="42" t="s">
         <v>1261</v>
       </c>
-      <c r="H200" s="43" t="s">
+      <c r="H200" s="42" t="s">
         <v>1262</v>
       </c>
-      <c r="I200" s="43" t="s">
+      <c r="I200" s="42" t="s">
         <v>1263</v>
       </c>
-      <c r="J200" s="42" t="s">
+      <c r="J200" s="41" t="s">
         <v>1264</v>
       </c>
       <c r="K200" s="18" t="s">
@@ -9873,7 +9962,7 @@
       <c r="A204" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="B204" s="5" t="s">
+      <c r="B204" s="49" t="s">
         <v>806</v>
       </c>
       <c r="C204" s="5" t="s">
@@ -12349,12 +12438,14 @@
         <v>1220</v>
       </c>
       <c r="E308" s="8"/>
-      <c r="F308" s="6"/>
       <c r="G308" s="6"/>
       <c r="H308" s="6"/>
       <c r="I308" s="6"/>
       <c r="J308" s="6"/>
       <c r="K308" s="5"/>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F309" s="6"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B311" s="5"/>
